--- a/310101.xlsx
+++ b/310101.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjcuedu-my.sharepoint.com/personal/jayden_dzierbicki_my_jcu_edu_au/Documents/Desktop/MA5832/Assignment/Assignment 3/Machine-Learning-and-Artificial-Neural-Network-to-Predict-Unemployment-/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_78A955401307974DD453651218D746D392719E9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14355" windowHeight="10560"/>
+    <workbookView xWindow="-20595" yWindow="945" windowWidth="13035" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -59,12 +65,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ABS</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -123,12 +129,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ABS</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -168,111 +174,111 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J76" authorId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J77" authorId="0">
+    <comment ref="J77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J78" authorId="0">
+    <comment ref="J78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -311,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J79" authorId="0">
+    <comment ref="J79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -324,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J80" authorId="0">
+    <comment ref="J80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J81" authorId="0">
+    <comment ref="J81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -350,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J82" authorId="0">
+    <comment ref="J82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -363,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J83" authorId="0">
+    <comment ref="J83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -376,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J84" authorId="0">
+    <comment ref="J84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -389,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J85" authorId="0">
+    <comment ref="J85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J86" authorId="0">
+    <comment ref="J86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J87" authorId="0">
+    <comment ref="J87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -428,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J88" authorId="0">
+    <comment ref="J88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -441,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J89" authorId="0">
+    <comment ref="J89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -454,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J90" authorId="0">
+    <comment ref="J90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -467,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J91" authorId="0">
+    <comment ref="J91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -480,1658 +486,1658 @@
         </r>
       </text>
     </comment>
-    <comment ref="I112" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J112" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I113" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J113" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I114" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J114" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I115" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J115" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I116" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J116" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I117" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J117" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I118" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J118" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I119" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J119" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I120" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J120" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I121" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J121" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I122" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J122" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I123" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J123" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I124" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J124" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I125" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J125" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I126" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J126" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I127" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J127" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I128" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J128" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I129" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J129" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I130" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J130" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I131" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J131" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I132" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J132" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I133" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J133" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I134" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J134" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I135" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J135" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I136" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J136" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I137" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J137" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I138" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J138" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I139" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J139" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I140" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J140" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I141" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J141" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I142" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J142" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I143" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J143" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I144" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J144" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I145" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J145" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I146" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J146" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I147" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J147" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I148" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J148" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I149" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J149" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I150" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J150" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I151" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J151" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I152" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J152" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I153" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J153" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I154" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J154" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I155" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J155" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I156" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J156" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I157" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J157" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I158" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J158" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I159" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J159" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I160" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J160" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I161" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J161" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I162" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J162" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I163" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J163" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I164" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J164" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I165" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J165" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I166" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J166" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I167" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J167" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I168" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J168" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I169" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J169" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I170" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J170" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I173" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J173" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I174" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J174" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I175" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not applicable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J175" authorId="0">
+    <comment ref="I112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I115" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J115" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I116" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J116" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I118" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J118" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I119" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J119" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I120" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J120" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I121" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J121" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I122" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000030000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J122" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I123" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J123" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000033000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000034000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000035000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I125" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000036000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J125" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000037000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I126" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000038000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J126" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000039000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I127" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J127" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I128" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J128" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I129" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J129" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I130" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000040000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J130" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000041000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I131" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000042000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J131" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000043000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I132" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000044000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J132" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000045000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I133" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000046000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J133" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000047000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000048000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000049000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I136" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J136" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I137" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J137" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I138" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000050000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J138" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000051000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I139" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000052000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J139" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000053000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000054000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000055000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I141" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000056000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J141" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000057000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000058000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000059000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I143" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J143" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I144" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J144" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I145" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J145" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I146" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000060000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J146" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000061000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I147" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000062000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J147" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000063000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I148" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000064000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J148" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000065000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I149" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000066000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J149" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000067000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I150" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000068000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J150" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000069000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I151" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J151" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I152" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J152" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I153" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J153" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I154" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000070000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J154" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000071000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I155" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000072000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J155" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000073000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I156" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000074000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J156" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000075000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I157" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000076000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J157" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000077000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I158" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000078000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J158" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000079000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I159" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J159" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I160" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J160" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I161" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J161" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00007F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I162" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000080000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J162" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000081000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I163" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000082000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J163" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000083000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I164" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000084000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J164" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000085000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I165" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000086000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J165" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000087000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I166" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000088000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J166" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000089000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I167" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J167" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I168" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J168" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I169" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J169" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00008F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I170" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000090000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J170" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000091000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I171" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000092000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J171" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000093000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I172" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000094000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J172" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000095000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I173" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000096000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J173" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000097000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I174" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000098000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J174" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000099000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I175" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J175" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00009B000000}">
       <text>
         <r>
           <rPr>
@@ -2149,12 +2155,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ABS</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2334,7 +2340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0;\-0.0;0.0;@"/>
@@ -2449,24 +2455,24 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2481,9 +2487,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2503,6 +2506,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2513,6 +2519,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2535,7 +2544,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2584,7 +2599,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2659,7 +2680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2692,9 +2713,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2727,6 +2765,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2902,12 +2957,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2974,57 +3029,57 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3035,7 +3090,7 @@
       <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="11">
@@ -3047,7 +3102,7 @@
       <c r="H12" s="12">
         <v>165</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="12" t="s">
@@ -3067,7 +3122,7 @@
       <c r="D13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="11">
@@ -3079,7 +3134,7 @@
       <c r="H13" s="12">
         <v>165</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="12" t="s">
@@ -3099,7 +3154,7 @@
       <c r="D14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="11">
@@ -3111,7 +3166,7 @@
       <c r="H14" s="12">
         <v>165</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="12" t="s">
@@ -3131,7 +3186,7 @@
       <c r="D15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="11">
@@ -3143,7 +3198,7 @@
       <c r="H15" s="12">
         <v>165</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="12" t="s">
@@ -3163,7 +3218,7 @@
       <c r="D16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="11">
@@ -3175,7 +3230,7 @@
       <c r="H16" s="12">
         <v>165</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="12" t="s">
@@ -3195,7 +3250,7 @@
       <c r="D17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="11">
@@ -3207,7 +3262,7 @@
       <c r="H17" s="12">
         <v>165</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="12" t="s">
@@ -3227,7 +3282,7 @@
       <c r="D18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="11">
@@ -3239,7 +3294,7 @@
       <c r="H18" s="12">
         <v>165</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="12" t="s">
@@ -3259,7 +3314,7 @@
       <c r="D19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="11">
@@ -3271,7 +3326,7 @@
       <c r="H19" s="12">
         <v>165</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="12" t="s">
@@ -3291,7 +3346,7 @@
       <c r="D20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="11">
@@ -3303,7 +3358,7 @@
       <c r="H20" s="12">
         <v>165</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="12" t="s">
@@ -3323,7 +3378,7 @@
       <c r="D21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="11">
@@ -3335,7 +3390,7 @@
       <c r="H21" s="12">
         <v>165</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="12" t="s">
@@ -3355,7 +3410,7 @@
       <c r="D22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="11">
@@ -3367,7 +3422,7 @@
       <c r="H22" s="12">
         <v>165</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="12" t="s">
@@ -3387,7 +3442,7 @@
       <c r="D23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="11">
@@ -3399,7 +3454,7 @@
       <c r="H23" s="12">
         <v>165</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="12" t="s">
@@ -3419,7 +3474,7 @@
       <c r="D24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="11">
@@ -3454,20 +3509,20 @@
     <mergeCell ref="B6:L6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" location="Enquiries!A1" display="Enquiries"/>
-    <hyperlink ref="E12" location="A2133244X" display="A2133244X"/>
-    <hyperlink ref="E13" location="A2133245A" display="A2133245A"/>
-    <hyperlink ref="E14" location="A2133252X" display="A2133252X"/>
-    <hyperlink ref="E15" location="A2133246C" display="A2133246C"/>
-    <hyperlink ref="E16" location="A2133247F" display="A2133247F"/>
-    <hyperlink ref="E17" location="A2133248J" display="A2133248J"/>
-    <hyperlink ref="E18" location="A2133249K" display="A2133249K"/>
-    <hyperlink ref="E19" location="A2133253A" display="A2133253A"/>
-    <hyperlink ref="E20" location="A2133250V" display="A2133250V"/>
-    <hyperlink ref="E21" location="A2133254C" display="A2133254C"/>
-    <hyperlink ref="E22" location="A2133251W" display="A2133251W"/>
-    <hyperlink ref="E23" location="A2133255F" display="A2133255F"/>
-    <hyperlink ref="E24" location="A2133256J" display="A2133256J"/>
+    <hyperlink ref="D8" location="Enquiries!A1" display="Enquiries" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E12" location="A2133244X" display="A2133244X" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E13" location="A2133245A" display="A2133245A" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E14" location="A2133252X" display="A2133252X" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E15" location="A2133246C" display="A2133246C" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E16" location="A2133247F" display="A2133247F" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E17" location="A2133248J" display="A2133248J" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E18" location="A2133249K" display="A2133249K" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E19" location="A2133253A" display="A2133253A" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E20" location="A2133250V" display="A2133250V" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E21" location="A2133254C" display="A2133254C" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E22" location="A2133251W" display="A2133251W" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E23" location="A2133255F" display="A2133255F" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E24" location="A2133256J" display="A2133256J" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3476,14 +3531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10892,7 +10947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -10966,22 +11021,22 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="10" spans="2:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>45</v>
       </c>
     </row>
